--- a/Result/ARIMA/Service/USA.xlsx
+++ b/Result/ARIMA/Service/USA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,6 +647,16 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="n">
+        <v>77.43969290342653</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -691,72 +701,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>77.22762899988003</v>
+        <v>77.65023464644533</v>
       </c>
       <c r="C2" t="n">
-        <v>76.49956825653209</v>
+        <v>76.93358506597271</v>
       </c>
       <c r="D2" t="n">
-        <v>77.95568974322796</v>
+        <v>78.36688422691795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>77.50980447119086</v>
+        <v>77.63397608032378</v>
       </c>
       <c r="C3" t="n">
-        <v>76.7368060571155</v>
+        <v>76.8759272847978</v>
       </c>
       <c r="D3" t="n">
-        <v>78.28280288526622</v>
+        <v>78.39202487584976</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>77.60548569805037</v>
+        <v>77.58007358393998</v>
       </c>
       <c r="C4" t="n">
-        <v>76.80604909727036</v>
+        <v>76.79331401733573</v>
       </c>
       <c r="D4" t="n">
-        <v>78.40492229883039</v>
+        <v>78.36683315054422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>77.63227519832731</v>
+        <v>77.6570132002433</v>
       </c>
       <c r="C5" t="n">
-        <v>76.70529008403605</v>
+        <v>76.74183443370299</v>
       </c>
       <c r="D5" t="n">
-        <v>78.55926031261856</v>
+        <v>78.57219196678361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>77.72099109845458</v>
+        <v>77.92407165217672</v>
       </c>
       <c r="C6" t="n">
-        <v>76.71612137081721</v>
+        <v>76.93055833450062</v>
       </c>
       <c r="D6" t="n">
-        <v>78.72586082609195</v>
+        <v>78.91758496985283</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1049,16 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="n">
+        <v>78.37621815015305</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1086,13 +1106,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>80.63934794833641</v>
+        <v>77.68379193375334</v>
       </c>
       <c r="C2" t="n">
-        <v>79.41958983624464</v>
+        <v>76.58143640882727</v>
       </c>
       <c r="D2" t="n">
-        <v>81.85910606042818</v>
+        <v>78.78614745867941</v>
       </c>
     </row>
     <row r="3">
@@ -1100,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>79.21716781867039</v>
+        <v>77.78948632935301</v>
       </c>
       <c r="C3" t="n">
-        <v>77.56616515914502</v>
+        <v>76.68745751299856</v>
       </c>
       <c r="D3" t="n">
-        <v>80.86817047819576</v>
+        <v>78.89151514570746</v>
       </c>
     </row>
     <row r="4">
@@ -1114,13 +1134,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>78.25650034227232</v>
+        <v>78.46865500062312</v>
       </c>
       <c r="C4" t="n">
-        <v>76.60255993929869</v>
+        <v>77.21708835690478</v>
       </c>
       <c r="D4" t="n">
-        <v>79.91044074524595</v>
+        <v>79.72022164434145</v>
       </c>
     </row>
     <row r="5">
@@ -1128,13 +1148,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>78.62278249822604</v>
+        <v>79.20950296899527</v>
       </c>
       <c r="C5" t="n">
-        <v>76.91282737534056</v>
+        <v>77.82384823455138</v>
       </c>
       <c r="D5" t="n">
-        <v>80.33273762111153</v>
+        <v>80.59515770343916</v>
       </c>
     </row>
     <row r="6">
@@ -1142,13 +1162,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>79.60698809122317</v>
+        <v>79.65745661338694</v>
       </c>
       <c r="C6" t="n">
-        <v>77.87232135791913</v>
+        <v>78.25943812674591</v>
       </c>
       <c r="D6" t="n">
-        <v>81.34165482452721</v>
+        <v>81.05547510002798</v>
       </c>
     </row>
   </sheetData>

--- a/Result/ARIMA/Service/USA.xlsx
+++ b/Result/ARIMA/Service/USA.xlsx
@@ -463,7 +463,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>71.80902863255352</v>
+        <v>0.236171715240392</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>72.41981985859105</v>
+        <v>72.04520429109607</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>72.68984179443413</v>
+        <v>72.71598109934938</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>72.81844773951202</v>
+        <v>72.83095061166003</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>74.01746915996874</v>
+        <v>72.90085633178259</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>74.86370124170796</v>
+        <v>74.12022053551081</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>74.60409933915189</v>
+        <v>74.57755161591204</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>74.1637865273611</v>
+        <v>74.08861328985996</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>74.02568269055816</v>
+        <v>73.85658676077362</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>73.70136842050006</v>
+        <v>74.10893133356851</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>73.92206182220272</v>
+        <v>74.31266212202878</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>74.61953604030172</v>
+        <v>74.95003124256243</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>76.51433450878595</v>
+        <v>75.71827256281534</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>76.2772193576192</v>
+        <v>76.8071028210129</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>75.9014962160953</v>
+        <v>76.17424774185801</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>76.16380034260708</v>
+        <v>75.8246590609198</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>75.81605357504479</v>
+        <v>76.08090088275939</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>75.82754097311374</v>
+        <v>76.0739359457107</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>76.74239628616712</v>
+        <v>76.47310204024078</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>77.43969290342653</v>
+        <v>77.28092901672069</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -815,7 +815,7 @@
         <v>1997</v>
       </c>
       <c r="B2" t="n">
-        <v>71.80902863255352</v>
+        <v>0.2333812346860189</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -825,7 +825,7 @@
         <v>1998</v>
       </c>
       <c r="B3" t="n">
-        <v>72.41981985859105</v>
+        <v>72.04240584069341</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -835,7 +835,7 @@
         <v>1999</v>
       </c>
       <c r="B4" t="n">
-        <v>72.68984179443413</v>
+        <v>72.62714614997304</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -845,7 +845,7 @@
         <v>2000</v>
       </c>
       <c r="B5" t="n">
-        <v>72.81844773951202</v>
+        <v>72.79546284961691</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>2001</v>
       </c>
       <c r="B6" t="n">
-        <v>74.01746915996874</v>
+        <v>72.92402834652951</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>2002</v>
       </c>
       <c r="B7" t="n">
-        <v>74.86370124170796</v>
+        <v>73.83778953530492</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -875,7 +875,7 @@
         <v>2003</v>
       </c>
       <c r="B8" t="n">
-        <v>74.60409933915189</v>
+        <v>74.16826759059731</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>2004</v>
       </c>
       <c r="B9" t="n">
-        <v>74.1637865273611</v>
+        <v>73.87879086581108</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>2005</v>
       </c>
       <c r="B10" t="n">
-        <v>74.02568269055816</v>
+        <v>73.86238933434508</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>2006</v>
       </c>
       <c r="B11" t="n">
-        <v>73.70136842050006</v>
+        <v>74.23131447621341</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>2007</v>
       </c>
       <c r="B12" t="n">
-        <v>73.92206182220272</v>
+        <v>74.60330339757037</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="n">
-        <v>74.61953604030172</v>
+        <v>75.26236734201363</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>2009</v>
       </c>
       <c r="B14" t="n">
-        <v>76.51433450878595</v>
+        <v>75.9153930800461</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>2010</v>
       </c>
       <c r="B15" t="n">
-        <v>76.2772193576192</v>
+        <v>76.5398785482675</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>2011</v>
       </c>
       <c r="B16" t="n">
-        <v>75.9014962160953</v>
+        <v>75.96177511307265</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>2012</v>
       </c>
       <c r="B17" t="n">
-        <v>76.16380034260708</v>
+        <v>75.73743312717671</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="n">
-        <v>75.81605357504479</v>
+        <v>75.98149298458719</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="n">
-        <v>75.82754097311374</v>
+        <v>76.12579436919259</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="n">
-        <v>76.74239628616712</v>
+        <v>76.61249940402857</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2016</v>
       </c>
       <c r="B21" t="n">
-        <v>77.43969290342653</v>
+        <v>77.2728256104209</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2017</v>
       </c>
       <c r="B22" t="n">
-        <v>77.03139272153369</v>
+        <v>77.50316998349699</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>76.73973785773181</v>
+        <v>77.39142453335245</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="n">
-        <v>77.1995025991171</v>
+        <v>77.6680658824814</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="n">
-        <v>80.1364098690393</v>
+        <v>78.27328006136199</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2021</v>
       </c>
       <c r="B26" t="n">
-        <v>78.37621815015305</v>
+        <v>78.87931812479869</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
